--- a/SourceDataTables/FigS2d.xlsx
+++ b/SourceDataTables/FigS2d.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
     <t>Cortical_ROI</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -49,14 +49,30 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -74,10 +90,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>

--- a/SourceDataTables/FigS2d.xlsx
+++ b/SourceDataTables/FigS2d.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
   <si>
     <t>Cortical_ROI</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -57,11 +57,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -73,6 +75,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,10 +94,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
     </row>

--- a/SourceDataTables/FigS2d.xlsx
+++ b/SourceDataTables/FigS2d.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Cortical_ROI</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -49,34 +49,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,14 +70,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -106,7 +86,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.71764677089406936</v>
+        <v>0.71873543267179885</v>
       </c>
     </row>
     <row r="3">
@@ -114,7 +94,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.53257982949412408</v>
+        <v>0.53366764969111757</v>
       </c>
     </row>
     <row r="4">
@@ -122,7 +102,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.1272601443705443</v>
+        <v>1.1282300739064479</v>
       </c>
     </row>
     <row r="5">
@@ -130,7 +110,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.0328286877094444</v>
+        <v>1.0322496376808061</v>
       </c>
     </row>
     <row r="6">
@@ -138,7 +118,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.22556634669379508</v>
+        <v>0.22327697678078159</v>
       </c>
     </row>
     <row r="7">
@@ -146,7 +126,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.46040186179111781</v>
+        <v>0.46145547346452159</v>
       </c>
     </row>
     <row r="8">
@@ -154,7 +134,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.65935540286751204</v>
+        <v>0.66039230226360857</v>
       </c>
     </row>
     <row r="9">
@@ -162,7 +142,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.1346246335861556</v>
+        <v>1.1355756868642422</v>
       </c>
     </row>
     <row r="10">
@@ -170,7 +150,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.9352927897457014</v>
+        <v>0.93639458424936961</v>
       </c>
     </row>
     <row r="11">
@@ -178,7 +158,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.2296824403837154</v>
+        <v>1.230264707433909</v>
       </c>
     </row>
     <row r="12">
@@ -186,7 +166,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.79891610106647437</v>
+        <v>0.79863335259951329</v>
       </c>
     </row>
     <row r="13">
@@ -194,7 +174,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.2183564930368922</v>
+        <v>1.2191181563522027</v>
       </c>
     </row>
     <row r="14">
@@ -202,7 +182,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.53472848289070773</v>
+        <v>0.53578968174952979</v>
       </c>
     </row>
     <row r="15">
@@ -210,7 +190,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.46849335103651185</v>
+        <v>0.46944281627196088</v>
       </c>
     </row>
     <row r="16">
@@ -218,7 +198,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.71194142569705432</v>
+        <v>0.71298623961339747</v>
       </c>
     </row>
     <row r="17">
@@ -226,7 +206,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.1679384444614851</v>
+        <v>1.1685245995455764</v>
       </c>
     </row>
     <row r="18">
@@ -234,7 +214,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.94707443039703587</v>
+        <v>0.94804714575709348</v>
       </c>
     </row>
     <row r="19">
@@ -242,7 +222,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.94843182892564737</v>
+        <v>0.94946077157312025</v>
       </c>
     </row>
     <row r="20">
@@ -250,7 +230,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.2636905392898399</v>
+        <v>1.2642463157505179</v>
       </c>
     </row>
     <row r="21">
@@ -258,7 +238,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.61922185458633872</v>
+        <v>0.61897205811127665</v>
       </c>
     </row>
     <row r="22">
@@ -266,7 +246,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1.0892996039519176</v>
+        <v>1.090101812041337</v>
       </c>
     </row>
     <row r="23">
@@ -274,7 +254,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.59867612351838206</v>
+        <v>0.59969426834884554</v>
       </c>
     </row>
     <row r="24">
@@ -282,7 +262,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.72413050585170335</v>
+        <v>0.72515655819574232</v>
       </c>
     </row>
     <row r="25">
@@ -290,7 +270,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.64633654283953934</v>
+        <v>0.64763505399455668</v>
       </c>
     </row>
     <row r="26">
@@ -298,7 +278,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.0115700663364382</v>
+        <v>1.012512205026846</v>
       </c>
     </row>
     <row r="27">
@@ -306,7 +286,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.87956235322708498</v>
+        <v>0.88053790388618736</v>
       </c>
     </row>
     <row r="28">
@@ -314,7 +294,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.020684971439396</v>
+        <v>1.0214834675825037</v>
       </c>
     </row>
     <row r="29">
@@ -322,7 +302,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1.2486987625794412</v>
+        <v>1.2488224353803363</v>
       </c>
     </row>
     <row r="30">
@@ -330,7 +310,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.96419436579650131</v>
+        <v>0.96503666837696911</v>
       </c>
     </row>
     <row r="31">
@@ -338,7 +318,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.23428386871888</v>
+        <v>1.234787858697479</v>
       </c>
     </row>
     <row r="32">
@@ -346,7 +326,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.94025722880342544</v>
+        <v>0.94119144263041798</v>
       </c>
     </row>
     <row r="33">
@@ -354,7 +334,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1.0777525178040157</v>
+        <v>1.0784724511647381</v>
       </c>
     </row>
     <row r="34">
@@ -362,7 +342,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.98749496664619596</v>
+        <v>0.98825121240743552</v>
       </c>
     </row>
     <row r="35">
@@ -370,7 +350,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1.2120388893763101</v>
+        <v>1.2126458211293996</v>
       </c>
     </row>
     <row r="36">
@@ -378,7 +358,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.77483534475829252</v>
+        <v>0.77587757374542587</v>
       </c>
     </row>
     <row r="37">
@@ -386,7 +366,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1.0257275417911365</v>
+        <v>1.0266081250473109</v>
       </c>
     </row>
     <row r="38">
@@ -394,7 +374,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1.2117486354771991</v>
+        <v>1.2117035574512041</v>
       </c>
     </row>
     <row r="39">
@@ -402,7 +382,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.085717363671249269</v>
+        <v>0.089560900809852448</v>
       </c>
     </row>
     <row r="40">
@@ -410,7 +390,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1.0230164522274294</v>
+        <v>1.023838599170992</v>
       </c>
     </row>
     <row r="41">
@@ -418,7 +398,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.397198736825007</v>
+        <v>-0.3949306577442111</v>
       </c>
     </row>
     <row r="42">
@@ -426,7 +406,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1.0194400739449039</v>
+        <v>1.0200946134124989</v>
       </c>
     </row>
     <row r="43">
@@ -434,7 +414,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1.1143832569578596</v>
+        <v>1.1149426370312558</v>
       </c>
     </row>
     <row r="44">
@@ -442,7 +422,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1.1765694485020151</v>
+        <v>1.1773009240113945</v>
       </c>
     </row>
     <row r="45">
@@ -450,7 +430,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1.0279703780144396</v>
+        <v>1.0287851961480285</v>
       </c>
     </row>
     <row r="46">
@@ -458,7 +438,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.92646791071432022</v>
+        <v>0.92747483617414828</v>
       </c>
     </row>
     <row r="47">
@@ -466,7 +446,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.68211434885565692</v>
+        <v>0.68356163739887277</v>
       </c>
     </row>
     <row r="48">
@@ -474,7 +454,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1.1179568531163169</v>
+        <v>1.1185717618895883</v>
       </c>
     </row>
     <row r="49">
@@ -482,7 +462,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.35578218373838</v>
+        <v>0.35905407890947461</v>
       </c>
     </row>
     <row r="50">
@@ -490,7 +470,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1.0463207301179571</v>
+        <v>1.046988940037179</v>
       </c>
     </row>
     <row r="51">
@@ -498,7 +478,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1.0945384876019568</v>
+        <v>1.0946140310374777</v>
       </c>
     </row>
     <row r="52">
@@ -506,7 +486,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-0.40407169565808876</v>
+        <v>-0.40183877833767717</v>
       </c>
     </row>
     <row r="53">
@@ -514,7 +494,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1.1221580344107374</v>
+        <v>1.1225358310714044</v>
       </c>
     </row>
     <row r="54">
@@ -522,7 +502,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1.0215177294609012</v>
+        <v>1.0221837047508326</v>
       </c>
     </row>
     <row r="55">
@@ -530,7 +510,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1.0749719374258491</v>
+        <v>1.0750065929810078</v>
       </c>
     </row>
     <row r="56">
@@ -538,7 +518,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1.0589146559187046</v>
+        <v>1.0595327413186197</v>
       </c>
     </row>
     <row r="57">
@@ -546,7 +526,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-0.38835795491807934</v>
+        <v>-0.38473813386790179</v>
       </c>
     </row>
     <row r="58">
@@ -554,7 +534,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1.097793099602085</v>
+        <v>1.0981662155136995</v>
       </c>
     </row>
     <row r="59">
@@ -562,7 +542,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1.0741798218782033</v>
+        <v>1.074844830343028</v>
       </c>
     </row>
     <row r="60">
@@ -570,7 +550,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1.1347145614052063</v>
+        <v>1.1349970971798913</v>
       </c>
     </row>
     <row r="61">
@@ -578,7 +558,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1.1085162347877036</v>
+        <v>1.1086870779342561</v>
       </c>
     </row>
     <row r="62">
@@ -586,7 +566,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1.0472394360927357</v>
+        <v>1.0477831404331339</v>
       </c>
     </row>
     <row r="63">
@@ -594,7 +574,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-0.5061011606852831</v>
+        <v>-0.50231495766786982</v>
       </c>
     </row>
     <row r="64">
@@ -602,7 +582,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-0.74512719730759802</v>
+        <v>-0.74171479034628796</v>
       </c>
     </row>
     <row r="65">
@@ -610,7 +590,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.94001574512563135</v>
+        <v>0.94060690388003609</v>
       </c>
     </row>
     <row r="66">
@@ -618,7 +598,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1.2102510821413732</v>
+        <v>1.2107567502365901</v>
       </c>
     </row>
     <row r="67">
@@ -626,7 +606,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-1.2339791371681026</v>
+        <v>-1.2312777738246199</v>
       </c>
     </row>
     <row r="68">
@@ -634,7 +614,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1.0486866341405341</v>
+        <v>1.0491259774152377</v>
       </c>
     </row>
     <row r="69">
@@ -642,7 +622,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-0.41580587439988514</v>
+        <v>-0.41357406446627443</v>
       </c>
     </row>
     <row r="70">
@@ -650,7 +630,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1.1253379228169891</v>
+        <v>1.1257485840229804</v>
       </c>
     </row>
     <row r="71">
@@ -658,7 +638,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1.1933469461255366</v>
+        <v>1.1937421418076031</v>
       </c>
     </row>
     <row r="72">
@@ -666,7 +646,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-0.17790410152386629</v>
+        <v>-0.17411846402159445</v>
       </c>
     </row>
     <row r="73">
@@ -674,7 +654,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1.0227733894363751</v>
+        <v>1.0233950683401083</v>
       </c>
     </row>
     <row r="74">
@@ -682,7 +662,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-0.81660728768730206</v>
+        <v>-0.8131754055612368</v>
       </c>
     </row>
     <row r="75">
@@ -690,7 +670,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1.1133407610463799</v>
+        <v>1.1131207863800883</v>
       </c>
     </row>
     <row r="76">
@@ -698,7 +678,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1.0818852810883675</v>
+        <v>1.0824096336859306</v>
       </c>
     </row>
     <row r="77">
@@ -706,7 +686,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.93535034870360878</v>
+        <v>0.93456177175084998</v>
       </c>
     </row>
     <row r="78">
@@ -714,7 +694,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1.067737453944223</v>
+        <v>1.0677421306154942</v>
       </c>
     </row>
     <row r="79">
@@ -722,7 +702,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1.053855411772906</v>
+        <v>1.0542166080170103</v>
       </c>
     </row>
     <row r="80">
@@ -730,7 +710,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1.1042142497859666</v>
+        <v>1.1042855825465883</v>
       </c>
     </row>
     <row r="81">
@@ -738,7 +718,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1.0698047972877609</v>
+        <v>1.0702935483432883</v>
       </c>
     </row>
     <row r="82">
@@ -746,7 +726,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1.0606864041521438</v>
+        <v>1.0610582369962198</v>
       </c>
     </row>
     <row r="83">
@@ -754,7 +734,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-0.65628919034653721</v>
+        <v>-0.65309196493468158</v>
       </c>
     </row>
     <row r="84">
@@ -762,7 +742,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-0.77905289436029124</v>
+        <v>-0.7758677745503828</v>
       </c>
     </row>
     <row r="85">
@@ -770,7 +750,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-0.72428168132560711</v>
+        <v>-0.72076973594667315</v>
       </c>
     </row>
     <row r="86">
@@ -778,7 +758,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-1.5858852577883382</v>
+        <v>-1.5854805563746519</v>
       </c>
     </row>
     <row r="87">
@@ -786,7 +766,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-0.77851611707050428</v>
+        <v>-0.77523522340472817</v>
       </c>
     </row>
     <row r="88">
@@ -794,7 +774,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1.0952910774186577</v>
+        <v>1.0956937094971739</v>
       </c>
     </row>
     <row r="89">
@@ -802,7 +782,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1.1611924842631167</v>
+        <v>1.1609783137763994</v>
       </c>
     </row>
     <row r="90">
@@ -810,7 +790,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1.1977232583308703</v>
+        <v>1.198172321196362</v>
       </c>
     </row>
     <row r="91">
@@ -818,7 +798,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-0.97703369527745965</v>
+        <v>-0.97382838618499257</v>
       </c>
     </row>
     <row r="92">
@@ -826,7 +806,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1.0669872581324429</v>
+        <v>1.0674011181156122</v>
       </c>
     </row>
     <row r="93">
@@ -834,7 +814,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1.0845473886264023</v>
+        <v>1.0849149425982041</v>
       </c>
     </row>
     <row r="94">
@@ -842,7 +822,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.92786520551266938</v>
+        <v>0.92766869543603026</v>
       </c>
     </row>
     <row r="95">
@@ -850,7 +830,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.85277482333841403</v>
+        <v>0.85156921231290783</v>
       </c>
     </row>
     <row r="96">
@@ -858,7 +838,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1.1216169674487761</v>
+        <v>1.1217599900921602</v>
       </c>
     </row>
     <row r="97">
@@ -866,7 +846,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-0.3004214512584768</v>
+        <v>-0.30348083718362484</v>
       </c>
     </row>
     <row r="98">
@@ -874,7 +854,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-0.73401384082502852</v>
+        <v>-0.73078469784053812</v>
       </c>
     </row>
     <row r="99">
@@ -882,7 +862,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.84451915814880252</v>
+        <v>0.84354392163013525</v>
       </c>
     </row>
     <row r="100">
@@ -890,7 +870,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1.1123406650748904</v>
+        <v>1.1126810258581266</v>
       </c>
     </row>
     <row r="101">
@@ -898,7 +878,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-0.8427109679812651</v>
+        <v>-0.83938293332768665</v>
       </c>
     </row>
     <row r="102">
@@ -906,7 +886,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-0.85288587716437858</v>
+        <v>-0.84957044487506594</v>
       </c>
     </row>
     <row r="103">
@@ -914,7 +894,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1.1004115851417164</v>
+        <v>1.1000698656303176</v>
       </c>
     </row>
     <row r="104">
@@ -922,7 +902,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-0.36989889613819926</v>
+        <v>-0.37286113998707526</v>
       </c>
     </row>
     <row r="105">
@@ -930,7 +910,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-0.91502769358505831</v>
+        <v>-0.91172538120239977</v>
       </c>
     </row>
     <row r="106">
@@ -938,7 +918,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-0.83173981470849334</v>
+        <v>-0.82842693753883712</v>
       </c>
     </row>
     <row r="107">
@@ -946,7 +926,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.11383754908520587</v>
+        <v>0.11180556592652291</v>
       </c>
     </row>
     <row r="108">
@@ -954,7 +934,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>1.2270505234349403</v>
+        <v>1.2270592203492463</v>
       </c>
     </row>
     <row r="109">
@@ -962,7 +942,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1.0942605609166065</v>
+        <v>1.0944549364449132</v>
       </c>
     </row>
     <row r="110">
@@ -970,7 +950,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>1.0913498882585342</v>
+        <v>1.0917679336953101</v>
       </c>
     </row>
     <row r="111">
@@ -978,7 +958,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1.0107955442849483</v>
+        <v>1.0106260820815454</v>
       </c>
     </row>
     <row r="112">
@@ -986,7 +966,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.77901343114340593</v>
+        <v>0.77832322682579891</v>
       </c>
     </row>
     <row r="113">
@@ -994,7 +974,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-1.4383415042083747</v>
+        <v>-1.4373286266476504</v>
       </c>
     </row>
     <row r="114">
@@ -1002,7 +982,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1.0939033788688295</v>
+        <v>1.0939795512995525</v>
       </c>
     </row>
     <row r="115">
@@ -1010,7 +990,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>1.1619888413886694</v>
+        <v>1.1624729644751828</v>
       </c>
     </row>
     <row r="116">
@@ -1018,7 +998,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-1.199246821538033</v>
+        <v>-1.1963154269422931</v>
       </c>
     </row>
     <row r="117">
@@ -1026,7 +1006,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-0.87190180490475411</v>
+        <v>-0.86855602773815022</v>
       </c>
     </row>
     <row r="118">
@@ -1034,7 +1014,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>1.1048050858567209</v>
+        <v>1.1049375692919674</v>
       </c>
     </row>
     <row r="119">
@@ -1042,7 +1022,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-1.0859299407176071</v>
+        <v>-1.0829556573770087</v>
       </c>
     </row>
     <row r="120">
@@ -1050,7 +1030,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>1.0849039443779975</v>
+        <v>1.0850369150390424</v>
       </c>
     </row>
     <row r="121">
@@ -1058,7 +1038,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-0.84047441113510057</v>
+        <v>-0.83716423770212112</v>
       </c>
     </row>
     <row r="122">
@@ -1066,7 +1046,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>-1.4710996780339438</v>
+        <v>-1.4696310890792652</v>
       </c>
     </row>
     <row r="123">
@@ -1074,7 +1054,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.54857891559189287</v>
+        <v>0.54703621778974532</v>
       </c>
     </row>
     <row r="124">
@@ -1082,7 +1062,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1.1006037892881406</v>
+        <v>1.1007860740347717</v>
       </c>
     </row>
     <row r="125">
@@ -1090,7 +1070,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>-1.5389355974025585</v>
+        <v>-1.5406525271115155</v>
       </c>
     </row>
     <row r="126">
@@ -1098,7 +1078,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>-0.94743819232255222</v>
+        <v>-0.94420169054384084</v>
       </c>
     </row>
     <row r="127">
@@ -1106,7 +1086,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>1.0071345775001774</v>
+        <v>1.0068175148494027</v>
       </c>
     </row>
     <row r="128">
@@ -1114,7 +1094,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.95047417432022285</v>
+        <v>0.94979187044870128</v>
       </c>
     </row>
     <row r="129">
@@ -1122,7 +1102,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>1.1617491260182657</v>
+        <v>1.1615580286164366</v>
       </c>
     </row>
     <row r="130">
@@ -1130,7 +1110,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>-0.0028182293004927182</v>
+        <v>-0.0051600389685826833</v>
       </c>
     </row>
     <row r="131">
@@ -1138,7 +1118,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>-1.1989890051309913</v>
+        <v>-1.2000548340552859</v>
       </c>
     </row>
     <row r="132">
@@ -1146,7 +1126,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>-1.0283554952544842</v>
+        <v>-1.0253508819796355</v>
       </c>
     </row>
     <row r="133">
@@ -1154,7 +1134,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>1.067313019127786</v>
+        <v>1.0671485526973117</v>
       </c>
     </row>
     <row r="134">
@@ -1162,7 +1142,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>-0.96768289128873552</v>
+        <v>-0.96438423841487986</v>
       </c>
     </row>
     <row r="135">
@@ -1170,7 +1150,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.58477681026056283</v>
+        <v>0.5844583619298741</v>
       </c>
     </row>
     <row r="136">
@@ -1178,7 +1158,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>1.0859756286480702</v>
+        <v>1.0857431729491915</v>
       </c>
     </row>
     <row r="137">
@@ -1186,7 +1166,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.059753860160178363</v>
+        <v>0.058625414449256889</v>
       </c>
     </row>
     <row r="138">
@@ -1194,7 +1174,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.029210568193510447</v>
+        <v>0.027601811304671511</v>
       </c>
     </row>
     <row r="139">
@@ -1202,7 +1182,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>1.1688477142482887</v>
+        <v>1.1688867582576914</v>
       </c>
     </row>
     <row r="140">
@@ -1210,7 +1190,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0.8510280147094903</v>
+        <v>0.85029316462046711</v>
       </c>
     </row>
     <row r="141">
@@ -1218,7 +1198,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>-1.4630168772470844</v>
+        <v>-1.4620042329168854</v>
       </c>
     </row>
     <row r="142">
@@ -1226,7 +1206,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>-1.0530764875189575</v>
+        <v>-1.0504449722785161</v>
       </c>
     </row>
     <row r="143">
@@ -1234,7 +1214,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>-1.0724582679382126</v>
+        <v>-1.0692712377681448</v>
       </c>
     </row>
     <row r="144">
@@ -1242,7 +1222,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-1.1480759241009864</v>
+        <v>-1.1451133958565727</v>
       </c>
     </row>
     <row r="145">
@@ -1250,7 +1230,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>-0.97298652793594376</v>
+        <v>-0.96967338452460816</v>
       </c>
     </row>
     <row r="146">
@@ -1258,7 +1238,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>1.0741160756682169</v>
+        <v>1.0740500427725865</v>
       </c>
     </row>
     <row r="147">
@@ -1266,7 +1246,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.96335911624718207</v>
+        <v>0.96299796890267653</v>
       </c>
     </row>
     <row r="148">
@@ -1274,7 +1254,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.95918309226872456</v>
+        <v>0.95865136712676613</v>
       </c>
     </row>
     <row r="149">
@@ -1282,7 +1262,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.45605276471558198</v>
+        <v>0.45442915269870737</v>
       </c>
     </row>
     <row r="150">
@@ -1290,7 +1270,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.19300392504404107</v>
+        <v>0.19099149140293376</v>
       </c>
     </row>
     <row r="151">
@@ -1298,7 +1278,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>1.0225999985062701</v>
+        <v>1.0223186258134487</v>
       </c>
     </row>
     <row r="152">
@@ -1306,7 +1286,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>-0.9915360141068259</v>
+        <v>-0.98825728580476868</v>
       </c>
     </row>
     <row r="153">
@@ -1314,7 +1294,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>-1.4880376715040644</v>
+        <v>-1.4875147697748505</v>
       </c>
     </row>
     <row r="154">
@@ -1322,7 +1302,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.61976486855143276</v>
+        <v>0.61855763296915489</v>
       </c>
     </row>
     <row r="155">
@@ -1330,7 +1310,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>-1.5508733182319641</v>
+        <v>-1.5517594024567611</v>
       </c>
     </row>
     <row r="156">
@@ -1338,7 +1318,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>-1.1967853153682777</v>
+        <v>-1.1939990480005798</v>
       </c>
     </row>
     <row r="157">
@@ -1346,7 +1326,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.87024796448448649</v>
+        <v>0.86950588413357566</v>
       </c>
     </row>
     <row r="158">
@@ -1354,7 +1334,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.34667350261426361</v>
+        <v>0.34507486481813276</v>
       </c>
     </row>
     <row r="159">
@@ -1362,7 +1342,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>-1.2006154177119919</v>
+        <v>-1.1976673272638507</v>
       </c>
     </row>
     <row r="160">
@@ -1370,7 +1350,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.89664730224582589</v>
+        <v>0.89607300846986837</v>
       </c>
     </row>
     <row r="161">
@@ -1378,7 +1358,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.7624557238258497</v>
+        <v>0.76141477588287321</v>
       </c>
     </row>
     <row r="162">
@@ -1386,7 +1366,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>-1.4238860219672482</v>
+        <v>-1.4221496077920868</v>
       </c>
     </row>
     <row r="163">
@@ -1394,7 +1374,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.84969523732585917</v>
+        <v>0.84890601814740663</v>
       </c>
     </row>
     <row r="164">
@@ -1402,7 +1382,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>-1.0277548167728854</v>
+        <v>-1.0305998719436225</v>
       </c>
     </row>
     <row r="165">
@@ -1410,7 +1390,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>-1.1020190550194828</v>
+        <v>-1.0989189094543703</v>
       </c>
     </row>
     <row r="166">
@@ -1418,7 +1398,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>-1.3244678299706827</v>
+        <v>-1.3222401044216947</v>
       </c>
     </row>
     <row r="167">
@@ -1426,7 +1406,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>-0.89651426925410393</v>
+        <v>-0.89820482315815753</v>
       </c>
     </row>
     <row r="168">
@@ -1434,7 +1414,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.66522258549276192</v>
+        <v>0.66392379099809229</v>
       </c>
     </row>
     <row r="169">
@@ -1442,7 +1422,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>-1.379171341394116</v>
+        <v>-1.3802222023467203</v>
       </c>
     </row>
     <row r="170">
@@ -1450,7 +1430,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.078025977973817051</v>
+        <v>0.075560186340201299</v>
       </c>
     </row>
     <row r="171">
@@ -1458,7 +1438,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>-1.1631985770198807</v>
+        <v>-1.1602487638294758</v>
       </c>
     </row>
     <row r="172">
@@ -1466,7 +1446,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.44702273999423731</v>
+        <v>0.4453546997151504</v>
       </c>
     </row>
     <row r="173">
@@ -1474,7 +1454,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0.8391654285557274</v>
+        <v>0.83846552078414904</v>
       </c>
     </row>
     <row r="174">
@@ -1482,7 +1462,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.75938444559774998</v>
+        <v>0.75855416114233276</v>
       </c>
     </row>
     <row r="175">
@@ -1490,7 +1470,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>-1.1304369320177849</v>
+        <v>-1.1274558045591312</v>
       </c>
     </row>
     <row r="176">
@@ -1498,7 +1478,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.26391739712268814</v>
+        <v>0.26190621398154806</v>
       </c>
     </row>
     <row r="177">
@@ -1506,7 +1486,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>-1.2210646200073116</v>
+        <v>-1.2184521247174764</v>
       </c>
     </row>
     <row r="178">
@@ -1514,7 +1494,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>-0.80839068453168506</v>
+        <v>-0.81232556093650621</v>
       </c>
     </row>
     <row r="179">
@@ -1522,7 +1502,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>-1.5983321721443136</v>
+        <v>-1.598771771966067</v>
       </c>
     </row>
     <row r="180">
@@ -1530,7 +1510,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.28048986670144233</v>
+        <v>0.27853061609805402</v>
       </c>
     </row>
     <row r="181">
@@ -1538,7 +1518,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>-0.19743037927653825</v>
+        <v>-0.20003146765649624</v>
       </c>
     </row>
     <row r="182">
@@ -1546,7 +1526,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>-1.4672045740460959</v>
+        <v>-1.470381936129753</v>
       </c>
     </row>
     <row r="183">
@@ -1554,7 +1534,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>0.6637181603118042</v>
+        <v>0.66251859697581528</v>
       </c>
     </row>
     <row r="184">
@@ -1562,7 +1542,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>0.39141050368104724</v>
+        <v>0.38965673069142004</v>
       </c>
     </row>
     <row r="185">
@@ -1570,7 +1550,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>-1.3529157666263965</v>
+        <v>-1.350627648542055</v>
       </c>
     </row>
     <row r="186">
@@ -1578,7 +1558,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>0.47828046461455503</v>
+        <v>0.47662522062641777</v>
       </c>
     </row>
     <row r="187">
@@ -1586,7 +1566,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>0.44430263205972076</v>
+        <v>0.44287255723781499</v>
       </c>
     </row>
     <row r="188">
@@ -1594,7 +1574,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0.0067317158778245718</v>
+        <v>0.0042938224838585696</v>
       </c>
     </row>
     <row r="189">
@@ -1602,7 +1582,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>-1.3457272705396055</v>
+        <v>-1.3431852462029399</v>
       </c>
     </row>
     <row r="190">
@@ -1610,7 +1590,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>-1.3941467374492389</v>
+        <v>-1.3927023972360539</v>
       </c>
     </row>
     <row r="191">
@@ -1618,7 +1598,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>0.33119630819974599</v>
+        <v>0.32922936182362122</v>
       </c>
     </row>
     <row r="192">
@@ -1626,7 +1606,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-1.1828626506390718</v>
+        <v>-1.180251401471246</v>
       </c>
     </row>
     <row r="193">
@@ -1634,7 +1614,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>-1.2225404566536835</v>
+        <v>-1.2224030043358594</v>
       </c>
     </row>
     <row r="194">
@@ -1642,7 +1622,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>-0.70880386352019442</v>
+        <v>-0.71228668664911055</v>
       </c>
     </row>
     <row r="195">
@@ -1650,7 +1630,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>-1.3161218937542147</v>
+        <v>-1.3183989168071075</v>
       </c>
     </row>
     <row r="196">
@@ -1658,7 +1638,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>-0.86375112075626925</v>
+        <v>-0.86720505112739377</v>
       </c>
     </row>
     <row r="197">
@@ -1666,7 +1646,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0.050251042281821978</v>
+        <v>0.047970817836262253</v>
       </c>
     </row>
     <row r="198">
@@ -1674,7 +1654,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>-1.2505667733255326</v>
+        <v>-1.2479619378542504</v>
       </c>
     </row>
     <row r="199">
@@ -1682,7 +1662,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0.36149942594502371</v>
+        <v>0.3595480592207162</v>
       </c>
     </row>
     <row r="200">
@@ -1690,7 +1670,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>-0.24430913778600513</v>
+        <v>-0.24709402641640496</v>
       </c>
     </row>
     <row r="201">
@@ -1698,7 +1678,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>-1.0792420438023735</v>
+        <v>-1.0824617459406876</v>
       </c>
     </row>
     <row r="202">
@@ -1706,7 +1686,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0.36570760043961553</v>
+        <v>0.36373749888372686</v>
       </c>
     </row>
     <row r="203">
@@ -1714,7 +1694,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>-1.3275206580872032</v>
+        <v>-1.325769267602698</v>
       </c>
     </row>
     <row r="204">
@@ -1722,7 +1702,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>-1.4927071924058073</v>
+        <v>-1.494427665110265</v>
       </c>
     </row>
     <row r="205">
@@ -1730,7 +1710,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>-1.4114893534369579</v>
+        <v>-1.4092472931565796</v>
       </c>
     </row>
     <row r="206">
@@ -1738,7 +1718,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>-0.52431082193245726</v>
+        <v>-0.52744546414425975</v>
       </c>
     </row>
     <row r="207">
@@ -1746,7 +1726,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0.0057069763276966527</v>
+        <v>0.0032608507613428005</v>
       </c>
     </row>
     <row r="208">
@@ -1754,7 +1734,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0.19776511400598762</v>
+        <v>0.19563336282699639</v>
       </c>
     </row>
     <row r="209">
@@ -1762,7 +1742,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>-1.2891258374887673</v>
+        <v>-1.2923162572672564</v>
       </c>
     </row>
     <row r="210">
@@ -1770,7 +1750,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>-0.17535651068982672</v>
+        <v>-0.17802421772756161</v>
       </c>
     </row>
     <row r="211">
@@ -1778,7 +1758,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>-1.4930347729755304</v>
+        <v>-1.4930797921907417</v>
       </c>
     </row>
     <row r="212">
@@ -1786,7 +1766,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>-0.66481830693521615</v>
+        <v>-0.6681874756231605</v>
       </c>
     </row>
     <row r="213">
@@ -1794,7 +1774,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>-1.3704428771578911</v>
+        <v>-1.3688613021164933</v>
       </c>
     </row>
     <row r="214">
@@ -1802,7 +1782,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0.0394832881984774</v>
+        <v>0.037042229763823084</v>
       </c>
     </row>
     <row r="215">
@@ -1810,7 +1790,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>-1.2804177294695818</v>
+        <v>-1.2784144833036393</v>
       </c>
     </row>
     <row r="216">
@@ -1818,7 +1798,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>-1.4360531456264221</v>
+        <v>-1.4364055179247581</v>
       </c>
     </row>
     <row r="217">
@@ -1826,7 +1806,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>-1.2925061303131204</v>
+        <v>-1.2904400863909411</v>
       </c>
     </row>
     <row r="218">
@@ -1834,7 +1814,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>-0.52941071462974354</v>
+        <v>-0.53248226606521254</v>
       </c>
     </row>
     <row r="219">
@@ -1842,7 +1822,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>-1.265584923092238</v>
+        <v>-1.2682639623673264</v>
       </c>
     </row>
     <row r="220">
@@ -1850,7 +1830,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>-1.0086204680650306</v>
+        <v>-1.0122611058024957</v>
       </c>
     </row>
     <row r="221">
@@ -1858,7 +1838,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>-0.96012204621514019</v>
+        <v>-0.96335114400470678</v>
       </c>
     </row>
     <row r="222">
@@ -1866,7 +1846,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>-0.47943393868733053</v>
+        <v>-0.4824767169038488</v>
       </c>
     </row>
     <row r="223">
@@ -1874,7 +1854,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>-0.24314263144142931</v>
+        <v>-0.24590052363973941</v>
       </c>
     </row>
     <row r="224">
@@ -1882,7 +1862,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>-0.18747609696726059</v>
+        <v>-0.19014358491054217</v>
       </c>
     </row>
     <row r="225">
@@ -1890,7 +1870,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>-1.3853956525123148</v>
+        <v>-1.3842529009624096</v>
       </c>
     </row>
     <row r="226">
@@ -1898,7 +1878,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>-0.50966523641672645</v>
+        <v>-0.51271590410368795</v>
       </c>
     </row>
     <row r="227">
@@ -1906,7 +1886,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>-1.5159519436305808</v>
+        <v>-1.5166388354185281</v>
       </c>
     </row>
     <row r="228">
@@ -1914,7 +1894,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>-1.4402215552590145</v>
+        <v>-1.4427239628680413</v>
       </c>
     </row>
     <row r="229">
@@ -1922,7 +1902,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>-1.4348937343275692</v>
+        <v>-1.4344079236111142</v>
       </c>
     </row>
     <row r="230">
@@ -1930,7 +1910,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>-0.76933411975205435</v>
+        <v>-0.77253127009700984</v>
       </c>
     </row>
     <row r="231">
@@ -1938,7 +1918,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>-1.4363482264542031</v>
+        <v>-1.4363558749517746</v>
       </c>
     </row>
     <row r="232">
@@ -1946,7 +1926,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>-0.42534435421123579</v>
+        <v>-0.42829468586732716</v>
       </c>
     </row>
     <row r="233">
@@ -1954,7 +1934,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>-0.42139009557751778</v>
+        <v>-0.42432433811049819</v>
       </c>
     </row>
     <row r="234">
@@ -1962,7 +1942,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>-1.4423734489595705</v>
+        <v>-1.4421314325382111</v>
       </c>
     </row>
     <row r="235">
@@ -1970,7 +1950,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>-1.4876708511889227</v>
+        <v>-1.4900403241501139</v>
       </c>
     </row>
     <row r="236">
@@ -1978,7 +1958,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>-0.97779947612098106</v>
+        <v>-0.98131895034804328</v>
       </c>
     </row>
     <row r="237">
@@ -1986,7 +1966,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>-0.72834034368023537</v>
+        <v>-0.73134609445509435</v>
       </c>
     </row>
     <row r="238">
@@ -1994,7 +1974,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>-1.4486712475204684</v>
+        <v>-1.448924714720867</v>
       </c>
     </row>
     <row r="239">
@@ -2002,7 +1982,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>-1.0694677345426906</v>
+        <v>-1.0724987419295111</v>
       </c>
     </row>
     <row r="240">
@@ -2010,7 +1990,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>-0.47922348310246793</v>
+        <v>-0.48219128468550532</v>
       </c>
     </row>
     <row r="241">
@@ -2018,7 +1998,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>-1.3877830807181446</v>
+        <v>-1.3907433971821799</v>
       </c>
     </row>
     <row r="242">
@@ -2026,7 +2006,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>-1.4970784022442889</v>
+        <v>-1.498836830966632</v>
       </c>
     </row>
     <row r="243">
@@ -2034,7 +2014,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>-0.76162989003131598</v>
+        <v>-0.76481317541734728</v>
       </c>
     </row>
     <row r="244">
@@ -2042,7 +2022,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>-1.0840407798556733</v>
+        <v>-1.0870105033400319</v>
       </c>
     </row>
     <row r="245">
@@ -2050,7 +2030,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>-0.69398077198590624</v>
+        <v>-0.69693479596030083</v>
       </c>
     </row>
     <row r="246">
@@ -2058,7 +2038,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>-1.5283044515216953</v>
+        <v>-1.5297567058484036</v>
       </c>
     </row>
     <row r="247">
@@ -2066,7 +2046,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>-1.4234103560366105</v>
+        <v>-1.4259880077313243</v>
       </c>
     </row>
     <row r="248">
@@ -2074,7 +2054,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>-1.2080143358814206</v>
+        <v>-1.211291072750645</v>
       </c>
     </row>
     <row r="249">
@@ -2082,7 +2062,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>-0.96270057527204711</v>
+        <v>-0.96577939950824288</v>
       </c>
     </row>
     <row r="250">
@@ -2090,7 +2070,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>-1.2774143917087788</v>
+        <v>-1.2803480534172658</v>
       </c>
     </row>
     <row r="251">
@@ -2098,7 +2078,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>-1.3541320365421265</v>
+        <v>-1.3569626527999814</v>
       </c>
     </row>
   </sheetData>
